--- a/1_Result_Tables/2_ifo_qoq_evaluations_sd_filtered/ifo_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/2_ifo_qoq_evaluations_sd_filtered/ifo_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.05606614581442193</v>
+        <v>0.05688009254515978</v>
       </c>
       <c r="C2">
-        <v>0.3122166831666507</v>
+        <v>0.3078030679106084</v>
       </c>
       <c r="D2">
-        <v>0.1798384485899794</v>
+        <v>0.1763561601164249</v>
       </c>
       <c r="E2">
-        <v>0.4240736358110221</v>
+        <v>0.4199478064193512</v>
       </c>
       <c r="F2">
-        <v>0.424799369976087</v>
+        <v>0.420389698777502</v>
       </c>
       <c r="G2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2703379816488578</v>
+        <v>0.2667693795774359</v>
       </c>
       <c r="C3">
-        <v>0.5560253493196096</v>
+        <v>0.5466263928059274</v>
       </c>
       <c r="D3">
-        <v>0.7222083897207439</v>
+        <v>0.7076554788746405</v>
       </c>
       <c r="E3">
-        <v>0.8498284472296417</v>
+        <v>0.8412226095835992</v>
       </c>
       <c r="F3">
-        <v>0.8142094029772756</v>
+        <v>0.8060705778746855</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5515758594960225</v>
+        <v>0.5431296193130369</v>
       </c>
       <c r="C4">
-        <v>0.7354599274079162</v>
+        <v>0.7231827691434326</v>
       </c>
       <c r="D4">
-        <v>1.272429132716042</v>
+        <v>1.246365227305445</v>
       </c>
       <c r="E4">
-        <v>1.128020005459141</v>
+        <v>1.116407285584184</v>
       </c>
       <c r="F4">
-        <v>0.994605892946411</v>
+        <v>0.985706586491255</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.47710462066912</v>
+        <v>0.4692704090458715</v>
       </c>
       <c r="C5">
-        <v>0.7483128928288655</v>
+        <v>0.7347082924362607</v>
       </c>
       <c r="D5">
-        <v>1.311803077829532</v>
+        <v>1.284144682252101</v>
       </c>
       <c r="E5">
-        <v>1.145339721580253</v>
+        <v>1.133201077590425</v>
       </c>
       <c r="F5">
-        <v>1.05274261815109</v>
+        <v>1.042621157342553</v>
       </c>
       <c r="G5">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3870479858744383</v>
+        <v>0.3883654118239238</v>
       </c>
       <c r="C6">
-        <v>0.6105729059767125</v>
+        <v>0.6070310945326703</v>
       </c>
       <c r="D6">
-        <v>0.8991252221451451</v>
+        <v>0.8839353291870329</v>
       </c>
       <c r="E6">
-        <v>0.9482221375527704</v>
+        <v>0.9401783496693767</v>
       </c>
       <c r="F6">
-        <v>0.8754136495616055</v>
+        <v>0.8656782987275211</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3718435319827915</v>
+        <v>0.3703187222185918</v>
       </c>
       <c r="C7">
-        <v>0.5680702800815874</v>
+        <v>0.5607740953733055</v>
       </c>
       <c r="D7">
-        <v>0.6081024721705646</v>
+        <v>0.5932288700479009</v>
       </c>
       <c r="E7">
-        <v>0.7798092537092417</v>
+        <v>0.7702135223740888</v>
       </c>
       <c r="F7">
-        <v>0.6960726968246833</v>
+        <v>0.685502670612526</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.360179242494945</v>
+        <v>0.3586222435103067</v>
       </c>
       <c r="C8">
-        <v>0.5560616822516526</v>
+        <v>0.5485688517592353</v>
       </c>
       <c r="D8">
-        <v>0.6380323319716295</v>
+        <v>0.6215876060107235</v>
       </c>
       <c r="E8">
-        <v>0.7987692607828806</v>
+        <v>0.788408273682312</v>
       </c>
       <c r="F8">
-        <v>0.7243618737387724</v>
+        <v>0.7130099896635785</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1784510331201595</v>
+        <v>0.1822978435501495</v>
       </c>
       <c r="C9">
-        <v>0.5248988217434553</v>
+        <v>0.5070926453844893</v>
       </c>
       <c r="D9">
-        <v>0.4196644600520597</v>
+        <v>0.3970354312988059</v>
       </c>
       <c r="E9">
-        <v>0.6478151434260082</v>
+        <v>0.6301074759902519</v>
       </c>
       <c r="F9">
-        <v>0.6446092577487825</v>
+        <v>0.6229417758010422</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2019555431471904</v>
+        <v>0.203264939200266</v>
       </c>
       <c r="C10">
-        <v>0.5120564964273662</v>
+        <v>0.4823557971524242</v>
       </c>
       <c r="D10">
-        <v>0.4163194324911699</v>
+        <v>0.379312118145266</v>
       </c>
       <c r="E10">
-        <v>0.6452282018721515</v>
+        <v>0.6158832017073254</v>
       </c>
       <c r="F10">
-        <v>0.6499808189236855</v>
+        <v>0.6128217818122421</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
